--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200218.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200218.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200218\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD1C14-6DCD-4878-8463-5522C3A1652B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB9A172-2B5C-42A0-AC31-DC4E8938E48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9644" uniqueCount="3381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9676" uniqueCount="3386">
   <si>
     <t>统计级别</t>
   </si>
@@ -10302,9 +10302,6 @@
   <si>
     <t>北京市</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区待确认</t>
   </si>
   <si>
     <t>内蒙古自治区卫生健康委员会</t>
@@ -11328,6 +11325,81 @@
 　　11.兴安盟乌兰浩特市1例
 　　确诊病例中，出院病例9例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、元宝山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例，锡林郭勒盟锡林浩特市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
 　　疑似病例17例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗2例、东河区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗2例）。排除包头市九原区疑似病例1例。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者614人。当日解除医学观察57人。</t>
+  </si>
+  <si>
+    <t>http://wjw.nmg.gov.cn/doc/2020/02/19/292672.shtml</t>
+  </si>
+  <si>
+    <t>http://wjw.nmg.gov.cn/doc/2020/02/19/292673.shtml</t>
+  </si>
+  <si>
+    <t>http://wjw.nmg.gov.cn/doc/2020/02/19/292674.shtml</t>
+  </si>
+  <si>
+    <t>2020年2月18日9时至19日8时内蒙古自治区新冠肺炎疫情情况 2020年2月18日9时至19日8时，内蒙古自治区报告新增新冠肺炎确诊病例2例，新增疑似病例3例，新增出院病例1例，排除疑似病例1例。
+　　其中：新增确诊病例2例为呼伦贝尔市莫力达瓦旗1例，锡林郭勒盟多伦县1例。
+　　新增呼伦贝尔市莫力达瓦旗1例确诊病例，为2月16日疑似病例，2月18日，根据患者临床症状、实验室检测结果，经专家组会诊，确诊为新冠肺炎确诊病例。
+　　新增锡林郭勒盟多伦县1例确诊病例，为之前确诊病例的密切接触者，患儿便样新冠肺炎病毒核酸呈阳性，2月18日，经自治区医疗专家组会诊，为新冠肺炎确诊病例。
+　　新增疑似病例3例为通辽市库伦旗2例，呼和浩特市回民区1例。
+　　截至2月19日8时，内蒙古自治区累计报告新冠肺炎确诊病例75例，出院病例9例，重症病例4例，危重病例6例。
+　　其中75例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.锡林郭勒盟9例（锡林浩特市4例、二连浩特市1例、多伦县4例）
+　　4.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　5.​巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市7例（莫力达瓦旗5例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例9例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、元宝山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例，锡林郭勒盟锡林浩特市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例17例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗2例、东河区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗2例）。排除包头市九原区疑似病例1例。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者614人。当日解除医学观察58人。</t>
+  </si>
+  <si>
+    <t>2020年2月18日9时至19日8时内蒙古自治区新冠肺炎疫情情况 2020年2月18日9时至19日8时，内蒙古自治区报告新增新冠肺炎确诊病例2例，新增疑似病例3例，新增出院病例1例，排除疑似病例1例。
+　　其中：新增确诊病例2例为呼伦贝尔市莫力达瓦旗1例，锡林郭勒盟多伦县1例。
+　　新增呼伦贝尔市莫力达瓦旗1例确诊病例，为2月16日疑似病例，2月18日，根据患者临床症状、实验室检测结果，经专家组会诊，确诊为新冠肺炎确诊病例。
+　　新增锡林郭勒盟多伦县1例确诊病例，为之前确诊病例的密切接触者，患儿便样新冠肺炎病毒核酸呈阳性，2月18日，经自治区医疗专家组会诊，为新冠肺炎确诊病例。
+　　新增疑似病例3例为通辽市库伦旗2例，呼和浩特市回民区1例。
+　　截至2月19日8时，内蒙古自治区累计报告新冠肺炎确诊病例75例，出院病例9例，重症病例4例，危重病例6例。
+　　其中75例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.锡林郭勒盟9例（锡林浩特市4例、二连浩特市1例、多伦县4例）
+　　4.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　5.​巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市7例（莫力达瓦旗5例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例9例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、元宝山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例，锡林郭勒盟锡林浩特市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例17例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗2例、东河区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗2例）。排除包头市九原区疑似病例1例。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者614人。当日解除医学观察59人。</t>
+  </si>
+  <si>
+    <t>2020年2月18日9时至19日8时内蒙古自治区新冠肺炎疫情情况 2020年2月18日9时至19日8时，内蒙古自治区报告新增新冠肺炎确诊病例2例，新增疑似病例3例，新增出院病例1例，排除疑似病例1例。
+　　其中：新增确诊病例2例为呼伦贝尔市莫力达瓦旗1例，锡林郭勒盟多伦县1例。
+　　新增呼伦贝尔市莫力达瓦旗1例确诊病例，为2月16日疑似病例，2月18日，根据患者临床症状、实验室检测结果，经专家组会诊，确诊为新冠肺炎确诊病例。
+　　新增锡林郭勒盟多伦县1例确诊病例，为之前确诊病例的密切接触者，患儿便样新冠肺炎病毒核酸呈阳性，2月18日，经自治区医疗专家组会诊，为新冠肺炎确诊病例。
+　　新增疑似病例3例为通辽市库伦旗2例，呼和浩特市回民区1例。
+　　截至2月19日8时，内蒙古自治区累计报告新冠肺炎确诊病例75例，出院病例9例，重症病例4例，危重病例6例。
+　　其中75例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.锡林郭勒盟9例（锡林浩特市4例、二连浩特市1例、多伦县4例）
+　　4.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　5.​巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市7例（莫力达瓦旗5例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例9例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、元宝山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例，锡林郭勒盟锡林浩特市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例17例（呼伦贝尔市莫力达瓦旗5例、海拉尔区1例，包头市土默特右旗2例、东河区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例、回民区1例，通辽市的霍林郭勒市1例、库伦旗2例）。排除包头市九原区疑似病例1例。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者614人。当日解除医学观察60人。</t>
   </si>
 </sst>
 </file>
@@ -11790,10 +11862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="R44" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41:U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11959,7 +12031,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C2" s="14">
         <v>43879.375</v>
@@ -11997,27 +12069,27 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T2" s="15">
         <v>43880.416666666664</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="W2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB2" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>3337</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AI2" s="15"/>
@@ -12028,7 +12100,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C3" s="15">
         <v>43879.375</v>
@@ -12055,25 +12127,25 @@
         <v>3</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T3" s="15">
         <v>43880.416666666664</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="AA3" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB3" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="409.5">
@@ -12081,7 +12153,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C4" s="15">
         <v>43879.375</v>
@@ -12108,25 +12180,25 @@
         <v>2</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T4" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="AA4" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="409.5">
@@ -12134,7 +12206,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C5" s="14">
         <v>43879.375</v>
@@ -12161,25 +12233,25 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T5" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="AA5" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB5" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AC5" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="409.5">
@@ -12187,7 +12259,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C6" s="15">
         <v>43879.375</v>
@@ -12211,25 +12283,25 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T6" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="AA6" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB6" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="409.5">
@@ -12237,7 +12309,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C7" s="14">
         <v>43879.375</v>
@@ -12261,25 +12333,25 @@
         <v>3</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T7" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA7" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AC7" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="409.5">
@@ -12287,7 +12359,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C8" s="15">
         <v>43879.375</v>
@@ -12314,25 +12386,25 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T8" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="AA8" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB8" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AC8" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="409.5">
@@ -12340,7 +12412,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C9" s="14">
         <v>43879.375</v>
@@ -12367,25 +12439,25 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T9" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="AA9" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB9" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AC9" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC9" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="409.5">
@@ -12393,7 +12465,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C10" s="15">
         <v>43879.375</v>
@@ -12420,25 +12492,25 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T10" s="15">
         <v>43880.416666666664</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="AA10" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB10" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AC10" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="409.5">
@@ -12446,7 +12518,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C11" s="14">
         <v>43879.375</v>
@@ -12470,25 +12542,25 @@
         <v>3</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T11" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="AA11" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB11" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AC11" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="409.5">
@@ -12496,7 +12568,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C12" s="15">
         <v>43879.375</v>
@@ -12523,25 +12595,25 @@
         <v>2</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T12" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U12" s="22" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AA12" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB12" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AC12" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="409.5">
@@ -12549,7 +12621,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C13" s="14">
         <v>43879.375</v>
@@ -12573,25 +12645,25 @@
         <v>3</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T13" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U13" s="22" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="V13" s="21" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="AA13" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB13" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB13" s="13" t="s">
+      <c r="AC13" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="409.5">
@@ -12599,7 +12671,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C14" s="15">
         <v>43879.375</v>
@@ -12626,25 +12698,25 @@
         <v>1</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T14" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="AA14" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB14" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB14" s="13" t="s">
+      <c r="AC14" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="409.5">
@@ -12652,7 +12724,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C15" s="14">
         <v>43879.375</v>
@@ -12673,25 +12745,25 @@
         <v>748</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T15" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="V15" s="21" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="AA15" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB15" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB15" s="13" t="s">
+      <c r="AC15" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="409.5">
@@ -12699,7 +12771,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C16" s="15">
         <v>43879.375</v>
@@ -12726,25 +12798,25 @@
         <v>3</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T16" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U16" s="22" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="V16" s="21" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="AA16" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB16" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB16" s="13" t="s">
+      <c r="AC16" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="409.5">
@@ -12752,7 +12824,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C17" s="14">
         <v>43879.375</v>
@@ -12782,25 +12854,25 @@
         <v>1</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T17" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="V17" s="21" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="AA17" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB17" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB17" s="13" t="s">
+      <c r="AC17" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="409.5">
@@ -12808,7 +12880,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C18" s="15">
         <v>43879.375</v>
@@ -12835,25 +12907,25 @@
         <v>1</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T18" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U18" s="22" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="V18" s="21" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="AA18" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB18" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB18" s="13" t="s">
+      <c r="AC18" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="409.5">
@@ -12861,7 +12933,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C19" s="14">
         <v>43879.375</v>
@@ -12888,25 +12960,25 @@
         <v>1</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T19" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U19" s="22" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="V19" s="21" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="AA19" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB19" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB19" s="13" t="s">
+      <c r="AC19" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="409.5">
@@ -12914,7 +12986,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C20" s="15">
         <v>43879.375</v>
@@ -12938,25 +13010,25 @@
         <v>1</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T20" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U20" s="22" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="V20" s="21" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="AA20" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB20" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AC20" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC20" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="409.5">
@@ -12964,7 +13036,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C21" s="14">
         <v>43879.375</v>
@@ -12988,25 +13060,25 @@
         <v>3</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T21" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U21" s="22" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="V21" s="21" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="AA21" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB21" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AC21" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC21" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="409.5">
@@ -13014,7 +13086,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C22" s="15">
         <v>43879.375</v>
@@ -13035,25 +13107,25 @@
         <v>8</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T22" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="V22" s="21" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="AA22" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB22" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB22" s="13" t="s">
+      <c r="AC22" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC22" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="409.5">
@@ -13061,7 +13133,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C23" s="14">
         <v>43879.375</v>
@@ -13085,25 +13157,25 @@
         <v>2</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T23" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U23" s="22" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="V23" s="21" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="AA23" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB23" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB23" s="13" t="s">
+      <c r="AC23" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC23" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="409.5">
@@ -13111,7 +13183,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C24" s="15">
         <v>43879.375</v>
@@ -13135,25 +13207,25 @@
         <v>2</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T24" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U24" s="22" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="V24" s="21" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="AA24" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB24" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB24" s="13" t="s">
+      <c r="AC24" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC24" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="409.5">
@@ -13161,7 +13233,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C25" s="14">
         <v>43879.375</v>
@@ -13185,25 +13257,25 @@
         <v>4</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T25" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="AA25" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB25" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB25" s="13" t="s">
+      <c r="AC25" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC25" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="409.5">
@@ -13211,7 +13283,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C26" s="15">
         <v>43879.375</v>
@@ -13241,25 +13313,25 @@
         <v>1</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T26" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U26" s="22" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="V26" s="21" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="AA26" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB26" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB26" s="13" t="s">
+      <c r="AC26" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="409.5">
@@ -13267,7 +13339,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C27" s="14">
         <v>43879.375</v>
@@ -13291,25 +13363,25 @@
         <v>4</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T27" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U27" s="22" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="V27" s="21" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AA27" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB27" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB27" s="13" t="s">
+      <c r="AC27" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC27" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="409.5">
@@ -13317,7 +13389,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C28" s="15">
         <v>43879.375</v>
@@ -13344,25 +13416,25 @@
         <v>1</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T28" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U28" s="22" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="V28" s="21" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="AA28" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB28" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB28" s="13" t="s">
+      <c r="AC28" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="409.5">
@@ -13370,7 +13442,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C29" s="14">
         <v>43879.375</v>
@@ -13400,25 +13472,25 @@
         <v>2</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T29" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U29" s="22" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="V29" s="21" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AA29" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB29" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB29" s="13" t="s">
+      <c r="AC29" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC29" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="409.5">
@@ -13426,7 +13498,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C30" s="15">
         <v>43879.375</v>
@@ -13453,25 +13525,25 @@
         <v>3</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T30" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U30" s="22" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="V30" s="21" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AA30" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB30" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB30" s="13" t="s">
+      <c r="AC30" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC30" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="409.5">
@@ -13479,7 +13551,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C31" s="14">
         <v>43879.375</v>
@@ -13503,25 +13575,25 @@
         <v>3</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T31" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U31" s="22" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="V31" s="21" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="AA31" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB31" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB31" s="13" t="s">
+      <c r="AC31" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="409.5">
@@ -13529,7 +13601,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C32" s="15">
         <v>43879.375</v>
@@ -13553,25 +13625,25 @@
         <v>2</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T32" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U32" s="22" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="V32" s="21" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="AA32" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB32" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB32" s="13" t="s">
+      <c r="AC32" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC32" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="409.5">
@@ -13579,7 +13651,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C33" s="14">
         <v>43879.375</v>
@@ -13606,25 +13678,25 @@
         <v>2</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T33" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U33" s="22" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="V33" s="21" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="AA33" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB33" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB33" s="13" t="s">
+      <c r="AC33" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC33" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="409.5">
@@ -13632,7 +13704,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C34" s="15">
         <v>43879.375</v>
@@ -13662,25 +13734,25 @@
         <v>1</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T34" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U34" s="22" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="V34" s="21" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="AA34" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB34" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB34" s="13" t="s">
+      <c r="AC34" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC34" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="409.5">
@@ -13688,7 +13760,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C35" s="14">
         <v>43879.375</v>
@@ -13718,25 +13790,25 @@
         <v>1</v>
       </c>
       <c r="S35" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T35" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U35" s="22" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="V35" s="21" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="AA35" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB35" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB35" s="13" t="s">
+      <c r="AC35" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC35" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="409.5">
@@ -13744,7 +13816,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C36" s="15">
         <v>43879.375</v>
@@ -13774,25 +13846,25 @@
         <v>5</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T36" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U36" s="22" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="V36" s="21" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="AA36" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB36" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB36" s="13" t="s">
+      <c r="AC36" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC36" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="409.5">
@@ -13800,7 +13872,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C37" s="14">
         <v>43879.375</v>
@@ -13824,25 +13896,25 @@
         <v>1</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T37" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U37" s="22" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="V37" s="21" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="AA37" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB37" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB37" s="13" t="s">
+      <c r="AC37" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC37" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="409.5">
@@ -13850,7 +13922,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C38" s="15">
         <v>43879.375</v>
@@ -13877,25 +13949,25 @@
         <v>1</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T38" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U38" s="22" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="V38" s="21" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="AA38" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB38" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB38" s="13" t="s">
+      <c r="AC38" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC38" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="409.5">
@@ -13903,7 +13975,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C39" s="14">
         <v>43879.375</v>
@@ -13927,25 +13999,25 @@
         <v>1</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T39" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U39" s="22" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="V39" s="21" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="AA39" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB39" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB39" s="13" t="s">
+      <c r="AC39" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC39" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="409.5">
@@ -13953,7 +14025,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C40" s="15">
         <v>43879.375</v>
@@ -13977,25 +14049,25 @@
         <v>1</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T40" s="15">
         <v>43880.416666608799</v>
       </c>
       <c r="U40" s="22" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="V40" s="21" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="AA40" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB40" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB40" s="13" t="s">
+      <c r="AC40" s="13" t="s">
         <v>3336</v>
-      </c>
-      <c r="AC40" s="13" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="409.5">
@@ -14003,7 +14075,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C41" s="15">
         <v>43880.375</v>
@@ -14018,31 +14090,178 @@
         <v>14</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" s="13">
+        <v>1</v>
+      </c>
+      <c r="S41" s="13" t="s">
         <v>3293</v>
       </c>
-      <c r="M41" s="13">
-        <v>3</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>3294</v>
-      </c>
       <c r="T41" s="15">
-        <v>43880.416666608799</v>
+        <v>43880.416666666664</v>
       </c>
       <c r="U41" s="22" t="s">
+        <v>3379</v>
+      </c>
+      <c r="V41" s="21" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AA41" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB41" s="13" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AC41" s="13" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="409.5">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43880.375</v>
+      </c>
+      <c r="D42" s="20">
+        <v>43881.375</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="M42" s="13">
+        <v>1</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="T42" s="15">
+        <v>43880.416666666664</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>3383</v>
+      </c>
+      <c r="V42" s="21" t="s">
         <v>3380</v>
       </c>
-      <c r="V41" s="21" t="s">
+      <c r="AA42" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AA41" s="13" t="s">
+      <c r="AB42" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AB41" s="13" t="s">
+      <c r="AC42" s="13" t="s">
         <v>3336</v>
       </c>
-      <c r="AC41" s="13" t="s">
-        <v>3337</v>
+    </row>
+    <row r="43" spans="1:29" ht="409.5">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C43" s="15">
+        <v>43880.375</v>
+      </c>
+      <c r="D43" s="20">
+        <v>43881.375</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M43" s="13">
+        <v>2</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="T43" s="15">
+        <v>43880.416666666664</v>
+      </c>
+      <c r="U43" s="22" t="s">
+        <v>3384</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AA43" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB43" s="13" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AC43" s="13" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="409.5">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C44" s="15">
+        <v>43880.375</v>
+      </c>
+      <c r="D44" s="20">
+        <v>43881.375</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="M44" s="13">
+        <v>2</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="T44" s="15">
+        <v>43880.416666666664</v>
+      </c>
+      <c r="U44" s="22" t="s">
+        <v>3385</v>
+      </c>
+      <c r="V44" s="21" t="s">
+        <v>3382</v>
+      </c>
+      <c r="AA44" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB44" s="13" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AC44" s="13" t="s">
+        <v>3336</v>
       </c>
     </row>
   </sheetData>
@@ -14076,8 +14295,10 @@
     <hyperlink ref="V3:V24" r:id="rId2" display="http://wjw.nmg.gov.cn/doc/2020/02/19/292632.shtml" xr:uid="{4160B7E1-FAE5-4303-940F-3349A21B9926}"/>
     <hyperlink ref="V25" r:id="rId3" display="http://wjw.nmg.gov.cn/doc/2020/02/19/292632.shtml" xr:uid="{1FDD19CB-E0DF-4616-9EC5-F767CCC6B57E}"/>
     <hyperlink ref="V26:V41" r:id="rId4" display="http://wjw.nmg.gov.cn/doc/2020/02/19/292632.shtml" xr:uid="{38D7FB50-5D72-4A1B-8895-47AD30474D67}"/>
+    <hyperlink ref="V42:V44" r:id="rId5" display="http://wjw.nmg.gov.cn/doc/2020/02/19/292632.shtml" xr:uid="{02A269C3-4377-4D51-AA7E-EC01A9A005D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
